--- a/credentials/credentials.xlsx
+++ b/credentials/credentials.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakaushik\Documents\Product_Week\credentials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihirsharma\Parking-Slot-Booking\credentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2F96F-F121-4F01-82EA-ED161C345CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE5AB7-85CF-4407-9A70-E3E6F398BBD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
@@ -40,6 +41,39 @@
   </si>
   <si>
     <t>consumer2@gmail.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>set_email</t>
+  </si>
+  <si>
+    <t>set_password</t>
+  </si>
+  <si>
+    <t>provider99</t>
+  </si>
+  <si>
+    <t>provider99@gmail.com</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>The Great Indian Place</t>
+  </si>
+  <si>
+    <t>entry date</t>
+  </si>
+  <si>
+    <t>entry time</t>
+  </si>
+  <si>
+    <t>exit date</t>
+  </si>
+  <si>
+    <t>exit time</t>
   </si>
 </sst>
 </file>
@@ -84,9 +118,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,35 +404,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.36328125" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44677</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44679</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -410,6 +501,54 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8D76F59E-5CC3-407E-A893-E81D1F8445E7}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{4A4E2253-3C31-4588-8D5C-6E8F8D243E92}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{8402AC29-5071-4A9D-84F1-E8EF3BF30201}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{629B4B5E-F2C5-4FE4-A6FF-A40FCA0BB765}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{6BB4F019-A6F1-47A9-9180-A12D2FAE4696}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0B7822-29BF-463F-BCF2-6140889D5035}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{09A20C58-E57A-4E80-A3E4-A09A1AFE6CFD}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E5DBB8A3-CCE2-4398-AF47-10617B5834DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/credentials/credentials.xlsx
+++ b/credentials/credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakaushik\Documents\Product_Week\credentials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdadheech\Parking-Slot-Booking\credentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2F96F-F121-4F01-82EA-ED161C345CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB636BF2-42D2-45D6-BAC5-2CDB3B535D6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>consumer2@gmail.com</t>
+  </si>
+  <si>
+    <t>PaymentEmail</t>
+  </si>
+  <si>
+    <t>PaymentCardNo</t>
+  </si>
+  <si>
+    <t>PaymentMMYY</t>
+  </si>
+  <si>
+    <t>Paymentcvv</t>
+  </si>
+  <si>
+    <t>PaymentNameOnCard</t>
+  </si>
+  <si>
+    <t>PaymentCountry</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Extended_time</t>
+  </si>
+  <si>
+    <t>Extended date</t>
   </si>
 </sst>
 </file>
@@ -84,9 +114,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,19 +400,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -396,12 +434,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4242424242424240</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44585</v>
+      </c>
+      <c r="D9">
+        <v>234</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>44677</v>
       </c>
     </row>
   </sheetData>
@@ -410,7 +498,9 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8D76F59E-5CC3-407E-A893-E81D1F8445E7}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{4A4E2253-3C31-4588-8D5C-6E8F8D243E92}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{8402AC29-5071-4A9D-84F1-E8EF3BF30201}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{4CD0CC4A-8D4E-4B9D-A838-06671FCB4E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/credentials/credentials.xlsx
+++ b/credentials/credentials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakaushik\Documents\Product_Week\credentials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malpraneeth\Parking-Slot-Booking\Parking-Slot-Booking\credentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A2F96F-F121-4F01-82EA-ED161C345CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B289FF-A505-4BF2-99E8-60EA9086D97B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="1430" windowWidth="14400" windowHeight="7130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>email</t>
   </si>
@@ -40,6 +40,69 @@
   </si>
   <si>
     <t>consumer2@gmail.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>set_email</t>
+  </si>
+  <si>
+    <t>set_password</t>
+  </si>
+  <si>
+    <t>provider99</t>
+  </si>
+  <si>
+    <t>provider99@gmail.com</t>
+  </si>
+  <si>
+    <t>fname-profile</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>Ph no</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>praneeth</t>
+  </si>
+  <si>
+    <t>malyala</t>
+  </si>
+  <si>
+    <t>kphb clny</t>
+  </si>
+  <si>
+    <t>telangana</t>
+  </si>
+  <si>
+    <t>medchal</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>76556</t>
+  </si>
+  <si>
+    <t>9998887776</t>
   </si>
 </sst>
 </file>
@@ -84,9 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,40 +433,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.36328125" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -410,7 +546,10 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8D76F59E-5CC3-407E-A893-E81D1F8445E7}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{4A4E2253-3C31-4588-8D5C-6E8F8D243E92}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{8402AC29-5071-4A9D-84F1-E8EF3BF30201}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{4070869E-364F-4C68-886C-93119397D6B6}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{716D6EDA-554C-45EE-9D76-6C581A431AA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/credentials/credentials.xlsx
+++ b/credentials/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihirsharma\Parking-Slot-Booking\credentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE5AB7-85CF-4407-9A70-E3E6F398BBD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C0EF75-B892-48AD-849A-D6C5C8F3A902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="1590" windowWidth="10800" windowHeight="7090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>email</t>
   </si>
@@ -61,9 +61,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>The Great Indian Place</t>
-  </si>
-  <si>
     <t>entry date</t>
   </si>
   <si>
@@ -74,13 +71,46 @@
   </si>
   <si>
     <t>exit time</t>
+  </si>
+  <si>
+    <t>The Great India Place</t>
+  </si>
+  <si>
+    <t>provider121</t>
+  </si>
+  <si>
+    <t>provider121@gmail.com</t>
+  </si>
+  <si>
+    <t>4262022</t>
+  </si>
+  <si>
+    <t>4282022</t>
+  </si>
+  <si>
+    <t>Vehicle Number</t>
+  </si>
+  <si>
+    <t>UP137788</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>provider909@gmail.com</t>
+  </si>
+  <si>
+    <t>provider909</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +122,18 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,11 +160,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,26 +449,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" customWidth="1"/>
     <col min="3" max="3" width="12.7265625" customWidth="1"/>
     <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
     <col min="7" max="7" width="13.453125" customWidth="1"/>
     <col min="8" max="8" width="10.81640625" customWidth="1"/>
     <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,19 +489,19 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -463,39 +509,78 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44677</v>
-      </c>
-      <c r="H2" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.625</v>
       </c>
-      <c r="I2" s="2">
-        <v>44679</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{13DCF240-648D-4406-BC2A-B0D62902AE2E}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8D76F59E-5CC3-407E-A893-E81D1F8445E7}"/>
@@ -503,8 +588,11 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{8402AC29-5071-4A9D-84F1-E8EF3BF30201}"/>
     <hyperlink ref="D2" r:id="rId5" xr:uid="{629B4B5E-F2C5-4FE4-A6FF-A40FCA0BB765}"/>
     <hyperlink ref="E2" r:id="rId6" xr:uid="{6BB4F019-A6F1-47A9-9180-A12D2FAE4696}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{B2239C7C-57E9-45A7-826B-7B3F04EFE30A}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{99D94468-465C-4C52-AFB2-FD868DD637D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -516,14 +604,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.7265625" customWidth="1"/>
     <col min="2" max="2" width="20.90625" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -534,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>

--- a/credentials/credentials.xlsx
+++ b/credentials/credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihirsharma\Parking-Slot-Booking\credentials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakaushik\Documents\Product_Week\credentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE5AB7-85CF-4407-9A70-E3E6F398BBD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ECFDD-539E-4797-9D6A-D5CAF6F9A399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>email</t>
   </si>
@@ -34,9 +34,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>provider1@gmail.com</t>
-  </si>
-  <si>
     <t>password@123</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>The Great Indian Place</t>
-  </si>
-  <si>
     <t>entry date</t>
   </si>
   <si>
@@ -74,13 +68,49 @@
   </si>
   <si>
     <t>exit time</t>
+  </si>
+  <si>
+    <t>provider2@gmail.com</t>
+  </si>
+  <si>
+    <t>consumer20</t>
+  </si>
+  <si>
+    <t>consumer20@gmail.com</t>
+  </si>
+  <si>
+    <t>provider121@gmail.com</t>
+  </si>
+  <si>
+    <t>Vehicle Number</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>UP137788</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>provider121</t>
+  </si>
+  <si>
+    <t>provider909@gmail.com</t>
+  </si>
+  <si>
+    <t>The Great India Place</t>
+  </si>
+  <si>
+    <t>provider909</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +122,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,11 +163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -404,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,69 +477,124 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44677</v>
-      </c>
-      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4262022</v>
+      </c>
+      <c r="H2" s="4">
         <v>0.625</v>
       </c>
-      <c r="I2" s="2">
-        <v>44679</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2" s="3">
+        <v>4282022</v>
+      </c>
+      <c r="J2" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -501,8 +602,12 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8D76F59E-5CC3-407E-A893-E81D1F8445E7}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{4A4E2253-3C31-4588-8D5C-6E8F8D243E92}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{8402AC29-5071-4A9D-84F1-E8EF3BF30201}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{629B4B5E-F2C5-4FE4-A6FF-A40FCA0BB765}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{6BB4F019-A6F1-47A9-9180-A12D2FAE4696}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{E0FB1A4D-200C-4124-8E79-F2CAC4068177}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{64ACD86F-A88F-48A9-B95E-D12A2F36B82E}"/>
+    <hyperlink ref="A4" r:id="rId7" display="mailto:provider121@gmail.com" xr:uid="{75794F71-B765-4359-8803-EF237DE33D79}"/>
+    <hyperlink ref="B4" r:id="rId8" display="mailto:password@123" xr:uid="{2EB8B6D5-B923-4BBD-A270-FBC5A20FCD1E}"/>
+    <hyperlink ref="D2" r:id="rId9" display="mailto:provider909@gmail.com" xr:uid="{4F452A66-52A2-40F6-BF75-BFBE834F4125}"/>
+    <hyperlink ref="E2" r:id="rId10" display="mailto:password@123" xr:uid="{98375937-799A-4439-8EF6-B733FC702EE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -525,24 +630,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
